--- a/BDD/BDD_EspacesVerts.xlsx
+++ b/BDD/BDD_EspacesVerts.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moi\Documents\GitHub\WDPII\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E331B-6E59-416F-8EB1-2511A6B6F4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -60,11 +47,17 @@
   <si>
     <t>-1.133e-08 x + 4.86e-06 x - 0.0008123 x + 0.06647 x - 2.726 x + 50.3 x - 284 x + 366.8</t>
   </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,59 +121,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Quartier mal fréquenté"/>
-      <sheetName val="Quartier aisé"/>
-      <sheetName val="Chantier"/>
-      <sheetName val="Déménagement"/>
-      <sheetName val="Espace verts"/>
-      <sheetName val="Discothèque"/>
-      <sheetName val="Festival"/>
-      <sheetName val="Groupe scolaire"/>
-      <sheetName val="Groupe scolaire + espace vert"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>44927</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,16 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G106"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,10 +444,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44927</v>
       </c>
@@ -523,10 +467,14 @@
       <c r="E2" s="1">
         <v>554.40457200000003</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44934</v>
       </c>
@@ -542,12 +490,9 @@
       <c r="E3" s="1">
         <v>318.04423450000002</v>
       </c>
-      <c r="F3" s="4">
-        <v>-5.7765699999999996E-9</v>
-      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44941</v>
       </c>
@@ -563,10 +508,10 @@
       <c r="E4" s="1">
         <v>166.834408</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44948</v>
       </c>
@@ -582,12 +527,15 @@
       <c r="E5" s="1">
         <v>86.692771260000001</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="4">
+        <v>-5.7765699999999996E-9</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44955</v>
       </c>
@@ -603,12 +551,12 @@
       <c r="E6" s="1">
         <v>64.944817729999997</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44962</v>
       </c>
@@ -624,10 +572,10 @@
       <c r="E7" s="1">
         <v>90.234936840000003</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44969</v>
       </c>
@@ -646,7 +594,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44976</v>
       </c>
@@ -665,7 +613,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44983</v>
       </c>
@@ -684,7 +632,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44990</v>
       </c>
@@ -703,7 +651,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44997</v>
       </c>
@@ -722,7 +670,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45004</v>
       </c>
@@ -741,7 +689,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45011</v>
       </c>
@@ -760,7 +708,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45018</v>
       </c>
@@ -779,7 +727,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45025</v>
       </c>
@@ -798,7 +746,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45032</v>
       </c>
@@ -817,7 +765,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45039</v>
       </c>
@@ -836,7 +784,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45046</v>
       </c>
@@ -855,7 +803,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45053</v>
       </c>
@@ -874,7 +822,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45060</v>
       </c>
@@ -893,7 +841,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45067</v>
       </c>
@@ -912,7 +860,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45074</v>
       </c>
@@ -931,7 +879,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45081</v>
       </c>
@@ -950,7 +898,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45088</v>
       </c>
@@ -969,7 +917,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45095</v>
       </c>
@@ -988,7 +936,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45102</v>
       </c>
@@ -1007,7 +955,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45109</v>
       </c>
@@ -1026,7 +974,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45116</v>
       </c>
@@ -1045,7 +993,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45123</v>
       </c>
@@ -1064,7 +1012,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45130</v>
       </c>
@@ -1083,7 +1031,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45137</v>
       </c>
@@ -1102,7 +1050,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45144</v>
       </c>
@@ -1121,7 +1069,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45151</v>
       </c>
@@ -1140,7 +1088,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>45158</v>
       </c>
@@ -1159,7 +1107,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45165</v>
       </c>
@@ -1178,7 +1126,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>45172</v>
       </c>
@@ -1197,7 +1145,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>45179</v>
       </c>
@@ -1216,7 +1164,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>45186</v>
       </c>
@@ -1235,7 +1183,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45193</v>
       </c>
@@ -1254,7 +1202,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45200</v>
       </c>
@@ -1273,7 +1221,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45207</v>
       </c>
@@ -1292,7 +1240,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45214</v>
       </c>
@@ -1311,7 +1259,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45221</v>
       </c>
@@ -1330,7 +1278,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45228</v>
       </c>
@@ -1349,7 +1297,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45235</v>
       </c>
@@ -1368,7 +1316,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45242</v>
       </c>
@@ -1387,7 +1335,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45249</v>
       </c>
@@ -1406,7 +1354,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45256</v>
       </c>
@@ -1425,7 +1373,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45263</v>
       </c>
@@ -1444,7 +1392,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45270</v>
       </c>
@@ -1463,7 +1411,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45277</v>
       </c>
@@ -1482,7 +1430,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45284</v>
       </c>
@@ -1501,7 +1449,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>45291</v>
       </c>
@@ -1520,7 +1468,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>45298</v>
       </c>
@@ -1537,7 +1485,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>45305</v>
       </c>
@@ -1554,7 +1502,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45312</v>
       </c>
@@ -1571,7 +1519,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>45319</v>
       </c>
@@ -1588,7 +1536,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>45326</v>
       </c>
@@ -1605,7 +1553,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45333</v>
       </c>
@@ -1622,7 +1570,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>45340</v>
       </c>
@@ -1639,7 +1587,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>45347</v>
       </c>
@@ -1656,7 +1604,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>45354</v>
       </c>
@@ -1673,7 +1621,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45361</v>
       </c>
@@ -1690,7 +1638,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45368</v>
       </c>
@@ -1707,7 +1655,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>45375</v>
       </c>
@@ -1724,7 +1672,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>45382</v>
       </c>
@@ -1741,7 +1689,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45389</v>
       </c>
@@ -1758,7 +1706,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45396</v>
       </c>
@@ -1775,7 +1723,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>45403</v>
       </c>
@@ -1792,7 +1740,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>45410</v>
       </c>
@@ -1809,7 +1757,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45417</v>
       </c>
@@ -1826,7 +1774,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45424</v>
       </c>
@@ -1843,7 +1791,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45431</v>
       </c>
@@ -1860,7 +1808,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45438</v>
       </c>
@@ -1877,7 +1825,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45445</v>
       </c>
@@ -1894,7 +1842,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45452</v>
       </c>
@@ -1911,7 +1859,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45459</v>
       </c>
@@ -1928,7 +1876,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45466</v>
       </c>
@@ -1945,7 +1893,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>45473</v>
       </c>
@@ -1962,7 +1910,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>45480</v>
       </c>
@@ -1979,7 +1927,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45487</v>
       </c>
@@ -1996,7 +1944,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>45494</v>
       </c>
@@ -2013,7 +1961,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>45501</v>
       </c>
@@ -2030,7 +1978,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>45508</v>
       </c>
@@ -2047,7 +1995,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>45515</v>
       </c>
@@ -2064,7 +2012,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>45522</v>
       </c>
@@ -2081,7 +2029,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45529</v>
       </c>
@@ -2098,7 +2046,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45536</v>
       </c>
@@ -2115,7 +2063,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45543</v>
       </c>
@@ -2132,7 +2080,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45550</v>
       </c>
@@ -2149,7 +2097,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45557</v>
       </c>
@@ -2166,7 +2114,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45564</v>
       </c>
@@ -2183,7 +2131,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>45571</v>
       </c>
@@ -2200,7 +2148,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>45578</v>
       </c>
@@ -2217,7 +2165,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45585</v>
       </c>
@@ -2234,7 +2182,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45592</v>
       </c>
@@ -2251,7 +2199,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>45599</v>
       </c>
@@ -2268,7 +2216,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>45606</v>
       </c>
@@ -2285,7 +2233,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>45613</v>
       </c>
@@ -2302,7 +2250,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>45620</v>
       </c>
@@ -2319,7 +2267,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>45627</v>
       </c>
@@ -2336,7 +2284,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>45634</v>
       </c>
@@ -2353,7 +2301,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>45641</v>
       </c>
@@ -2370,7 +2318,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>45648</v>
       </c>
@@ -2387,7 +2335,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>45655</v>
       </c>

--- a/BDD/BDD_EspacesVerts.xlsx
+++ b/BDD/BDD_EspacesVerts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E331B-6E59-416F-8EB1-2511A6B6F4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8FFDCC-A49B-4D95-AFFE-358211C41564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D89" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +490,12 @@
       <c r="E3" s="1">
         <v>318.04423450000002</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -508,6 +513,12 @@
       <c r="E4" s="1">
         <v>166.834408</v>
       </c>
+      <c r="F4" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -527,6 +538,12 @@
       <c r="E5" s="1">
         <v>86.692771260000001</v>
       </c>
+      <c r="F5" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2</v>
+      </c>
       <c r="H5" s="4">
         <v>-5.7765699999999996E-9</v>
       </c>
@@ -551,6 +568,12 @@
       <c r="E6" s="1">
         <v>64.944817729999997</v>
       </c>
+      <c r="F6" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -572,6 +595,12 @@
       <c r="E7" s="1">
         <v>90.234936840000003</v>
       </c>
+      <c r="F7" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.2</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
@@ -591,8 +620,12 @@
       <c r="E8" s="1">
         <v>152.44082370000001</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -610,8 +643,12 @@
       <c r="E9" s="1">
         <v>242.59115929999999</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -629,8 +666,12 @@
       <c r="E10" s="1">
         <v>352.78650470000002</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -648,8 +689,12 @@
       <c r="E11" s="1">
         <v>476.12335150000001</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -667,8 +712,12 @@
       <c r="E12" s="1">
         <v>606.62127199999998</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -686,8 +735,12 @@
       <c r="E13" s="1">
         <v>739.15311150000002</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -705,8 +758,12 @@
       <c r="E14" s="1">
         <v>869.37816629999998</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -724,8 +781,12 @@
       <c r="E15" s="1">
         <v>993.67828910000003</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -743,8 +804,12 @@
       <c r="E16" s="1">
         <v>1109.096867</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -762,8 +827,12 @@
       <c r="E17" s="1">
         <v>1213.28061</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -781,8 +850,12 @@
       <c r="E18" s="1">
         <v>1304.4241030000001</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -800,8 +873,12 @@
       <c r="E19" s="1">
         <v>1381.2170490000001</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -819,8 +896,12 @@
       <c r="E20" s="1">
         <v>1442.794161</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -838,8 +919,12 @@
       <c r="E21" s="1">
         <v>1488.687639</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -857,8 +942,12 @@
       <c r="E22" s="1">
         <v>1518.7821719999999</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -876,8 +965,12 @@
       <c r="E23" s="1">
         <v>1533.2724149999999</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -895,8 +988,12 @@
       <c r="E24" s="1">
         <v>1532.622877</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -914,8 +1011,12 @@
       <c r="E25" s="1">
         <v>1517.5301710000001</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -933,8 +1034,12 @@
       <c r="E26" s="1">
         <v>1488.887559</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -952,8 +1057,12 @@
       <c r="E27" s="1">
         <v>1447.7517399999999</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -971,8 +1080,12 @@
       <c r="E28" s="1">
         <v>1395.311829</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -990,8 +1103,12 @@
       <c r="E29" s="1">
         <v>1332.860461</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
@@ -1009,8 +1126,12 @@
       <c r="E30" s="1">
         <v>1261.766963</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -1028,8 +1149,12 @@
       <c r="E31" s="1">
         <v>1183.4525510000001</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -1047,8 +1172,12 @@
       <c r="E32" s="1">
         <v>1099.3674719999999</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
@@ -1066,8 +1195,12 @@
       <c r="E33" s="1">
         <v>1010.970056</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -1085,8 +1218,12 @@
       <c r="E34" s="1">
         <v>919.70760729999995</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -1104,8 +1241,12 @@
       <c r="E35" s="1">
         <v>826.9990785</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -1123,8 +1264,12 @@
       <c r="E36" s="1">
         <v>734.21948139999995</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -1142,8 +1287,12 @@
       <c r="E37" s="1">
         <v>642.68596339999999</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -1161,8 +1310,12 @@
       <c r="E38" s="1">
         <v>553.64550099999997</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -1180,8 +1333,12 @@
       <c r="E39" s="1">
         <v>468.26415070000002</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -1199,8 +1356,12 @@
       <c r="E40" s="1">
         <v>387.61780110000001</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
@@ -1218,8 +1379,12 @@
       <c r="E41" s="1">
         <v>312.68436709999997</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -1237,8 +1402,12 @@
       <c r="E42" s="1">
         <v>244.33737199999999</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -1256,8 +1425,12 @@
       <c r="E43" s="1">
         <v>183.3408579</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -1275,8 +1448,12 @@
       <c r="E44" s="1">
         <v>130.34556850000001</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="F44" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -1294,8 +1471,12 @@
       <c r="E45" s="1">
         <v>85.886347400000005</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="F45" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -1313,8 +1494,12 @@
       <c r="E46" s="1">
         <v>50.380693469999997</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -1332,8 +1517,12 @@
       <c r="E47" s="1">
         <v>24.12841809</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -1351,8 +1540,12 @@
       <c r="E48" s="1">
         <v>7.3123455030000004</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -1370,8 +1563,12 @@
       <c r="E49" s="4">
         <v>-5.7765699999999996E-9</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -1389,8 +1586,12 @@
       <c r="E50" s="1">
         <v>2.1462226979999999</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="F50" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
@@ -1408,8 +1609,12 @@
       <c r="E51" s="1">
         <v>13.596660780000001</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="F51" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -1427,8 +1632,12 @@
       <c r="E52" s="1">
         <v>34.092072000000002</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -1446,8 +1655,12 @@
       <c r="E53" s="1">
         <v>63.273387509999999</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -1465,8 +1678,12 @@
       <c r="E54" s="1">
         <v>100.6874758</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="F54" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -1482,8 +1699,12 @@
       <c r="E55" s="1">
         <v>145.7935507</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="F55" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -1499,8 +1720,12 @@
       <c r="E56" s="1">
         <v>197.97016619999999</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -1516,8 +1741,12 @@
       <c r="E57" s="1">
         <v>256.5227415</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="F57" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -1533,8 +1762,12 @@
       <c r="E58" s="1">
         <v>320.69155810000001</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -1550,8 +1783,12 @@
       <c r="E59" s="1">
         <v>389.66017319999997</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="F59" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -1567,8 +1804,12 @@
       <c r="E60" s="1">
         <v>462.56419110000002</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="F60" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -1584,8 +1825,12 @@
       <c r="E61" s="1">
         <v>538.50033659999997</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="F61" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -1601,8 +1846,12 @@
       <c r="E62" s="1">
         <v>616.53577199999995</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -1618,8 +1867,12 @@
       <c r="E63" s="1">
         <v>695.71760200000006</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -1635,8 +1888,12 @@
       <c r="E64" s="1">
         <v>775.08250829999997</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
@@ -1652,8 +1909,12 @@
       <c r="E65" s="1">
         <v>853.6664571</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="F65" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -1669,8 +1930,12 @@
       <c r="E66" s="1">
         <v>930.51442299999997</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="F66" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -1686,8 +1951,12 @@
       <c r="E67" s="1">
         <v>1004.690071</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="F67" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -1703,8 +1972,12 @@
       <c r="E68" s="1">
         <v>1075.2853419999999</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -1720,8 +1993,12 @@
       <c r="E69" s="1">
         <v>1141.429879</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
@@ -1737,8 +2014,12 @@
       <c r="E70" s="1">
         <v>1202.3002449999999</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -1754,8 +2035,12 @@
       <c r="E71" s="1">
         <v>1257.1288709999999</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="F71" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
@@ -1771,8 +2056,12 @@
       <c r="E72" s="1">
         <v>1305.2126720000001</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
@@ -1788,8 +2077,12 @@
       <c r="E73" s="1">
         <v>1345.921286</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -1805,8 +2098,12 @@
       <c r="E74" s="1">
         <v>1378.7048689999999</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -1822,8 +2119,12 @@
       <c r="E75" s="1">
         <v>1403.1013909999999</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -1839,8 +2140,12 @@
       <c r="E76" s="1">
         <v>1418.743379</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -1856,8 +2161,12 @@
       <c r="E77" s="1">
         <v>1425.364045</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -1873,8 +2182,12 @@
       <c r="E78" s="1">
         <v>1422.8027480000001</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -1890,8 +2203,12 @@
       <c r="E79" s="1">
         <v>1411.00973</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -1907,8 +2224,12 @@
       <c r="E80" s="1">
         <v>1390.0500609999999</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -1924,8 +2245,12 @@
       <c r="E81" s="1">
         <v>1360.106753</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -1941,8 +2266,12 @@
       <c r="E82" s="1">
         <v>1321.482972</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -1958,8 +2287,12 @@
       <c r="E83" s="1">
         <v>1274.6032929999999</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="F83" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -1975,8 +2308,12 @@
       <c r="E84" s="1">
         <v>1220.013946</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -1992,8 +2329,12 @@
       <c r="E85" s="1">
         <v>1158.3819940000001</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -2009,8 +2350,12 @@
       <c r="E86" s="1">
         <v>1090.493381</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="F86" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -2026,8 +2371,12 @@
       <c r="E87" s="1">
         <v>1017.2497990000001</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -2043,8 +2392,12 @@
       <c r="E88" s="1">
         <v>939.6643163</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -2060,8 +2413,12 @@
       <c r="E89" s="1">
         <v>858.85570310000003</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="F89" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -2077,8 +2434,12 @@
       <c r="E90" s="1">
         <v>776.04140870000003</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="F90" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -2094,8 +2455,12 @@
       <c r="E91" s="1">
         <v>692.5291234</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="F91" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -2111,8 +2476,12 @@
       <c r="E92" s="1">
         <v>609.70687199999998</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="F92" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -2128,8 +2497,12 @@
       <c r="E93" s="1">
         <v>529.03158210000004</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="F93" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -2145,8 +2518,12 @@
       <c r="E94" s="1">
         <v>452.01606930000003</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="F94" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -2162,8 +2539,12 @@
       <c r="E95" s="1">
         <v>380.21438189999998</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="F95" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -2179,8 +2560,12 @@
       <c r="E96" s="1">
         <v>315.20544869999998</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="F96" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -2196,8 +2581,12 @@
       <c r="E97" s="1">
         <v>258.57497280000001</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="F97" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -2213,8 +2602,12 @@
       <c r="E98" s="1">
         <v>211.89551320000001</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="F98" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -2230,8 +2623,12 @@
       <c r="E99" s="1">
         <v>176.70469879999999</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="F99" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -2247,8 +2644,12 @@
       <c r="E100" s="1">
         <v>154.48151609999999</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="F100" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -2264,8 +2665,12 @@
       <c r="E101" s="1">
         <v>146.62061449999999</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="F101" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -2281,8 +2686,12 @@
       <c r="E102" s="1">
         <v>154.404572</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="F102" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -2298,8 +2707,12 @@
       <c r="E103" s="1">
         <v>178.97406330000001</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="F103" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -2315,8 +2728,12 @@
       <c r="E104" s="1">
         <v>221.29587480000001</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="F104" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -2332,8 +2749,12 @@
       <c r="E105" s="1">
         <v>282.12870770000001</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -2349,8 +2770,12 @@
       <c r="E106" s="1">
         <v>361.9867132</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
